--- a/提案書/ECシステム構築プロジェクト_課題管理表_20250723.xlsx
+++ b/提案書/ECシステム構築プロジェクト_課題管理表_20250723.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\pm-cause-ec\提案書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{51CB995C-819C-4250-A600-286177AAAC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF2DE2-B934-4504-84AC-61793C634E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB9B3CFB-A2B2-410A-A085-F7356637B2F4}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -3758,6 +3757,28 @@
     </rPh>
     <rPh sb="63" eb="64">
       <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティパッチの適用タイミングはベンダーからのリリース後24時間以内に適用する方針でよろしいでしょうか？</t>
+    <rPh sb="10" eb="12">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4234,11 +4255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E3B71-C3E5-4CD5-B08D-D48D620DC2EF}">
-  <dimension ref="B2:I76"/>
+  <dimension ref="B2:I77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5513,7 +5534,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="2:9" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -5524,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>6</v>
@@ -5537,7 +5558,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:9" ht="112.5" x14ac:dyDescent="0.4">
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -5548,7 +5569,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>6</v>
@@ -5572,7 +5593,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -5585,7 +5606,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -5596,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>6</v>
@@ -5609,16 +5630,28 @@
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B55" s="2">
         <v>53</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="C55" s="3">
+        <v>45861</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45869</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
@@ -5872,6 +5905,18 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="2">
+        <v>75</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5889,7 +5934,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H76</xm:sqref>
+          <xm:sqref>H3:H77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
